--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
   <si>
     <t>shipmentType</t>
   </si>
@@ -393,6 +393,39 @@
   </si>
   <si>
     <t>Automation8151!</t>
+  </si>
+  <si>
+    <t>SeleniumXOtj@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumtTUh@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumlYWo@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490035</t>
+  </si>
+  <si>
+    <t>SeleniumMPqo@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490037</t>
+  </si>
+  <si>
+    <t>SeleniumDAnv@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumFwuf@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation8818!</t>
+  </si>
+  <si>
+    <t>SeleniumlLRK@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490253</t>
   </si>
 </sst>
 </file>
@@ -416,7 +449,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +526,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -610,6 +753,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -618,7 +838,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -642,7 +862,18 @@
     <xf applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="11" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -936,8 +1167,8 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.79296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
     <col min="9" max="9" style="6" width="9.140625" collapsed="true"/>
@@ -989,8 +1220,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>118</v>
+      <c r="E2" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1021,8 +1252,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>110</v>
+      <c r="E3" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1053,8 +1284,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>112</v>
+      <c r="E4" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1085,8 +1316,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>114</v>
+      <c r="E5" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1117,8 +1348,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>116</v>
+      <c r="E6" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1152,8 +1383,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" t="s" s="23">
-        <v>121</v>
+      <c r="F7" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -1342,7 +1573,8 @@
     <col min="17" max="17" style="1" width="9.140625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
     <col min="19" max="20" style="1" width="9.140625" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
     <col min="23" max="23" customWidth="true" style="1" width="10.0" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
@@ -1485,8 +1717,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>119</v>
+      <c r="U2" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -1553,8 +1785,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>111</v>
+      <c r="U3" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -1627,8 +1859,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>113</v>
+      <c r="U4" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>shipmentType</t>
   </si>
@@ -426,6 +426,21 @@
   </si>
   <si>
     <t>51490253</t>
+  </si>
+  <si>
+    <t>SeleniumshiV@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumyLdF@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490871</t>
+  </si>
+  <si>
+    <t>SeleniumIzEM@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490873</t>
   </si>
 </sst>
 </file>
@@ -449,7 +464,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,8 +651,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -830,6 +895,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -838,7 +938,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -873,7 +973,12 @@
     <xf applyBorder="true" applyFill="true" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1220,8 +1325,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>131</v>
+      <c r="E2" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1717,8 +1822,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="34" t="s">
-        <v>132</v>
+      <c r="U2" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="166">
   <si>
     <t>shipmentType</t>
   </si>
@@ -441,6 +441,90 @@
   </si>
   <si>
     <t>51490873</t>
+  </si>
+  <si>
+    <t>Seleniumpefa@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumpWfu@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumqDRG@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumFxFg@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490943</t>
+  </si>
+  <si>
+    <t>SeleniumUhzl@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490944</t>
+  </si>
+  <si>
+    <t>Automation7517!</t>
+  </si>
+  <si>
+    <t>SeleniumeuXB@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490948</t>
+  </si>
+  <si>
+    <t>SeleniumfXFF@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490949</t>
+  </si>
+  <si>
+    <t>SeleniumNcMH@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490950</t>
+  </si>
+  <si>
+    <t>SeleniumKIzc@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490951</t>
+  </si>
+  <si>
+    <t>SeleniumXZEY@mailinator.com</t>
+  </si>
+  <si>
+    <t>51490952</t>
+  </si>
+  <si>
+    <t>Automation2037!</t>
+  </si>
+  <si>
+    <t>SeleniumJZYq@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumOjMg@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumVQvM@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumDeGT@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumGOlQ@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumOwGF@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumMuvj@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumJgPP@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumcHMi@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -464,7 +548,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="104">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,8 +785,288 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -930,6 +1294,202 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -938,7 +1498,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -978,7 +1538,35 @@
     <xf applyBorder="true" applyFill="true" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="39" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="41" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="99" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1272,7 +1860,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.48828125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -1325,8 +1913,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>136</v>
+      <c r="E2" s="67" t="s">
+        <v>165</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1357,8 +1945,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>124</v>
+      <c r="E3" s="50" t="s">
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1389,8 +1977,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
+      <c r="E4" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1421,8 +2009,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>128</v>
+      <c r="E5" s="54" t="s">
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1453,8 +2041,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>129</v>
+      <c r="E6" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1488,8 +2076,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>130</v>
+      <c r="F7" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -1822,8 +2410,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>137</v>
+      <c r="U2" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -1890,8 +2478,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="27" t="s">
-        <v>125</v>
+      <c r="U3" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -1964,8 +2552,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="29" t="s">
-        <v>127</v>
+      <c r="U4" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -2032,8 +2620,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="19" t="s">
-        <v>115</v>
+      <c r="U5" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -2100,8 +2688,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>117</v>
+      <c r="U6" s="57" t="s">
+        <v>155</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="184">
   <si>
     <t>shipmentType</t>
   </si>
@@ -525,6 +525,60 @@
   </si>
   <si>
     <t>SeleniumcHMi@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumAcBV@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumrWjb@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumFrEG@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumtcaF@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumeoUk@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation3105!</t>
+  </si>
+  <si>
+    <t>SeleniumZQmI@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumJQbP@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumfWSm@mailinator.com</t>
+  </si>
+  <si>
+    <t>Seleniumwglm@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniummOoO@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation3202!</t>
+  </si>
+  <si>
+    <t>SeleniumDswQ@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumsMNH@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumTDCG@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumSGOQ@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation6512!</t>
+  </si>
+  <si>
+    <t>SeleniumVdgv@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -548,7 +602,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="104">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,8 +1119,188 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="100">
+  <borders count="136">
     <border>
       <left/>
       <right/>
@@ -1490,6 +1724,132 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1498,7 +1858,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1566,7 +1926,25 @@
     <xf applyBorder="true" applyFill="true" borderId="93" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="95" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="97" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="99" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="135" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1860,7 +2238,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.48828125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.41796875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -1913,8 +2291,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="67" t="s">
-        <v>165</v>
+      <c r="E2" s="85" t="s">
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1945,8 +2323,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>148</v>
+      <c r="E3" s="81" t="s">
+        <v>179</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1977,8 +2355,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>150</v>
+      <c r="E4" s="76" t="s">
+        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -2009,8 +2387,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>152</v>
+      <c r="E5" s="82" t="s">
+        <v>180</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -2041,8 +2419,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>154</v>
+      <c r="E6" s="83" t="s">
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -2076,8 +2454,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>156</v>
+      <c r="F7" s="84" t="s">
+        <v>182</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="230">
   <si>
     <t>shipmentType</t>
   </si>
@@ -579,6 +579,144 @@
   </si>
   <si>
     <t>SeleniumVdgv@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumzFfm@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumLtsc@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniummpNz@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumEYPj@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumzfAb@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumSoLU@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumdMwJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation2018!</t>
+  </si>
+  <si>
+    <t>SeleniumshgL@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumbAEg@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumlsMD@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumgsUc@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumhfZQ@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation7339!</t>
+  </si>
+  <si>
+    <t>SeleniumGefZ@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumqGsg@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumlhIB@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumfkmZ@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumBUJU@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation8463!</t>
+  </si>
+  <si>
+    <t>SeleniumyMqH@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation9071!</t>
+  </si>
+  <si>
+    <t>Automation6469!</t>
+  </si>
+  <si>
+    <t>Automation3381!</t>
+  </si>
+  <si>
+    <t>SeleniumdZba@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumcSXg@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumxUbo@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumIJIv@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumVOmu@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumQOki@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumPEWe@mailinator.com</t>
+  </si>
+  <si>
+    <t>Seleniumytgk@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumMaaI@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumkWHl@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation2462!</t>
+  </si>
+  <si>
+    <t>SeleniumHnvL@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumpyWX@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumUBdR@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumRKzN@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumMcii@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniummbuC@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumQElH@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumWkMh@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumQdvJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumDKNo@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation6998!</t>
   </si>
 </sst>
 </file>
@@ -602,7 +740,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="140">
+  <fills count="232">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,8 +1437,468 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="136">
+  <borders count="228">
     <border>
       <left/>
       <right/>
@@ -1850,6 +2448,328 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1858,7 +2778,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1944,7 +2864,53 @@
     <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="135" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="227" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2238,7 +3204,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.41796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.87890625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -2291,8 +3257,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="85" t="s">
-        <v>183</v>
+      <c r="E2" s="126" t="s">
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2323,8 +3289,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="81" t="s">
-        <v>179</v>
+      <c r="E3" s="127" t="s">
+        <v>225</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -2355,8 +3321,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>174</v>
+      <c r="E4" s="128" t="s">
+        <v>226</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -2387,8 +3353,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="82" t="s">
-        <v>180</v>
+      <c r="E5" s="129" t="s">
+        <v>227</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -2419,8 +3385,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="83" t="s">
-        <v>181</v>
+      <c r="E6" s="130" t="s">
+        <v>228</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -2454,8 +3420,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="84" t="s">
-        <v>182</v>
+      <c r="F7" s="131" t="s">
+        <v>229</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="241">
   <si>
     <t>shipmentType</t>
   </si>
@@ -717,6 +717,39 @@
   </si>
   <si>
     <t>Automation6998!</t>
+  </si>
+  <si>
+    <t>SeleniumCjti@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumvkfW@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumotaN@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumbiTu@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumRcXP@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation9288!</t>
+  </si>
+  <si>
+    <t>SeleniumPGBr@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumctfD@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumSWbf@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumPfEJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation6223!</t>
   </si>
 </sst>
 </file>
@@ -740,7 +773,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="232">
+  <fills count="254">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1897,8 +1930,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="228">
+  <borders count="250">
     <border>
       <left/>
       <right/>
@@ -2770,6 +2913,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2778,7 +2998,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2910,7 +3130,18 @@
     <xf applyBorder="true" applyFill="true" borderId="221" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="223" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="225" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="231" borderId="227" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="249" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3204,7 +3435,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.87890625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.6796875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -3257,8 +3488,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="126" t="s">
-        <v>224</v>
+      <c r="E2" s="132" t="s">
+        <v>230</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -3289,8 +3520,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="127" t="s">
-        <v>225</v>
+      <c r="E3" s="138" t="s">
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -3321,8 +3552,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="128" t="s">
-        <v>226</v>
+      <c r="E4" s="139" t="s">
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3353,8 +3584,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="129" t="s">
-        <v>227</v>
+      <c r="E5" s="140" t="s">
+        <v>238</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -3385,8 +3616,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="130" t="s">
-        <v>228</v>
+      <c r="E6" s="141" t="s">
+        <v>239</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -3420,8 +3651,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="131" t="s">
-        <v>229</v>
+      <c r="F7" s="142" t="s">
+        <v>240</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="243">
   <si>
     <t>shipmentType</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>Automation6223!</t>
+  </si>
+  <si>
+    <t>SeleniumYarT@mailinator.com</t>
+  </si>
+  <si>
+    <t>51498624</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="254">
+  <fills count="258">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2040,8 +2046,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="250">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -2990,6 +3016,20 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2998,7 +3038,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3141,7 +3181,9 @@
     <xf applyBorder="true" applyFill="true" borderId="243" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="245" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="253" borderId="249" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="257" borderId="253" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3488,8 +3530,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="132" t="s">
-        <v>230</v>
+      <c r="E2" s="143" t="s">
+        <v>241</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -3985,8 +4027,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="49" t="s">
-        <v>147</v>
+      <c r="U2" s="144" t="s">
+        <v>242</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="254">
   <si>
     <t>shipmentType</t>
   </si>
@@ -756,6 +756,39 @@
   </si>
   <si>
     <t>51498624</t>
+  </si>
+  <si>
+    <t>SeleniumnGvU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499253</t>
+  </si>
+  <si>
+    <t>SeleniumNuMU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499254</t>
+  </si>
+  <si>
+    <t>SeleniumvytE@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499255</t>
+  </si>
+  <si>
+    <t>SeleniumzOkw@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499256</t>
+  </si>
+  <si>
+    <t>SeleniumYXgO@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499257</t>
+  </si>
+  <si>
+    <t>Automation1427!</t>
   </si>
 </sst>
 </file>
@@ -779,7 +812,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="258">
+  <fills count="280">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2066,8 +2099,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="276">
     <border>
       <left/>
       <right/>
@@ -3030,6 +3173,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3038,7 +3258,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3183,7 +3403,18 @@
     <xf applyBorder="true" applyFill="true" borderId="247" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="249" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="251" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="257" borderId="253" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="279" borderId="275" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3477,7 +3708,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.6796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.75390625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -3530,8 +3761,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="143" t="s">
-        <v>241</v>
+      <c r="E2" s="145" t="s">
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -3562,8 +3793,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>236</v>
+      <c r="E3" s="147" t="s">
+        <v>245</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -3594,8 +3825,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="139" t="s">
-        <v>237</v>
+      <c r="E4" s="149" t="s">
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3626,8 +3857,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="140" t="s">
-        <v>238</v>
+      <c r="E5" s="151" t="s">
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -3658,8 +3889,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="141" t="s">
-        <v>239</v>
+      <c r="E6" s="153" t="s">
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -3693,8 +3924,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="142" t="s">
-        <v>240</v>
+      <c r="F7" s="155" t="s">
+        <v>253</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -4027,8 +4258,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="144" t="s">
-        <v>242</v>
+      <c r="U2" s="146" t="s">
+        <v>244</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -4095,8 +4326,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="51" t="s">
-        <v>149</v>
+      <c r="U3" s="148" t="s">
+        <v>246</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -4169,8 +4400,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="53" t="s">
-        <v>151</v>
+      <c r="U4" s="150" t="s">
+        <v>248</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -4237,8 +4468,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="55" t="s">
-        <v>153</v>
+      <c r="U5" s="152" t="s">
+        <v>250</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -4305,8 +4536,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="57" t="s">
-        <v>155</v>
+      <c r="U6" s="154" t="s">
+        <v>252</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="265">
   <si>
     <t>shipmentType</t>
   </si>
@@ -789,6 +789,39 @@
   </si>
   <si>
     <t>Automation1427!</t>
+  </si>
+  <si>
+    <t>SeleniumwAGK@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499427</t>
+  </si>
+  <si>
+    <t>SeleniumTqDi@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499428</t>
+  </si>
+  <si>
+    <t>SeleniumzhPL@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499429</t>
+  </si>
+  <si>
+    <t>SeleniumtmSp@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499430</t>
+  </si>
+  <si>
+    <t>SeleniumnELB@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499431</t>
+  </si>
+  <si>
+    <t>Automation7733!</t>
   </si>
 </sst>
 </file>
@@ -812,7 +845,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="280">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2209,8 +2242,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="276">
+  <borders count="298">
     <border>
       <left/>
       <right/>
@@ -3250,6 +3393,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3258,7 +3478,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3414,7 +3634,18 @@
     <xf applyBorder="true" applyFill="true" borderId="269" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="271" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="273" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="279" borderId="275" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="301" borderId="297" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3708,7 +3939,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.75390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.26171875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -3761,8 +3992,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="145" t="s">
-        <v>243</v>
+      <c r="E2" s="156" t="s">
+        <v>254</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -3793,8 +4024,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="147" t="s">
-        <v>245</v>
+      <c r="E3" s="158" t="s">
+        <v>256</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -3825,8 +4056,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="149" t="s">
-        <v>247</v>
+      <c r="E4" s="160" t="s">
+        <v>258</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3857,8 +4088,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="151" t="s">
-        <v>249</v>
+      <c r="E5" s="162" t="s">
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -3889,8 +4120,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="153" t="s">
-        <v>251</v>
+      <c r="E6" s="164" t="s">
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -3924,8 +4155,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="155" t="s">
-        <v>253</v>
+      <c r="F7" s="166" t="s">
+        <v>264</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -4258,8 +4489,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="146" t="s">
-        <v>244</v>
+      <c r="U2" s="157" t="s">
+        <v>255</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -4326,8 +4557,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="148" t="s">
-        <v>246</v>
+      <c r="U3" s="159" t="s">
+        <v>257</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -4400,8 +4631,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="150" t="s">
-        <v>248</v>
+      <c r="U4" s="161" t="s">
+        <v>259</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -4468,8 +4699,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="152" t="s">
-        <v>250</v>
+      <c r="U5" s="163" t="s">
+        <v>261</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -4536,8 +4767,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="154" t="s">
-        <v>252</v>
+      <c r="U6" s="165" t="s">
+        <v>263</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="276">
   <si>
     <t>shipmentType</t>
   </si>
@@ -822,6 +822,39 @@
   </si>
   <si>
     <t>Automation7733!</t>
+  </si>
+  <si>
+    <t>SeleniumeVJp@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499537</t>
+  </si>
+  <si>
+    <t>SeleniumRPGG@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499539</t>
+  </si>
+  <si>
+    <t>SeleniumAIuO@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499542</t>
+  </si>
+  <si>
+    <t>Seleniumkvvn@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499543</t>
+  </si>
+  <si>
+    <t>Seleniumsgcy@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499544</t>
+  </si>
+  <si>
+    <t>Automation8938!</t>
   </si>
 </sst>
 </file>
@@ -845,7 +878,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="302">
+  <fills count="324">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2352,8 +2385,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="298">
+  <borders count="320">
     <border>
       <left/>
       <right/>
@@ -3470,6 +3613,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3478,7 +3698,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="178">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3645,7 +3865,18 @@
     <xf applyBorder="true" applyFill="true" borderId="291" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="293" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="295" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="301" borderId="297" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="323" borderId="319" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3939,7 +4170,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.9921875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -3992,8 +4223,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="156" t="s">
-        <v>254</v>
+      <c r="E2" s="167" t="s">
+        <v>265</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -4024,8 +4255,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="158" t="s">
-        <v>256</v>
+      <c r="E3" s="169" t="s">
+        <v>267</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -4056,8 +4287,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="160" t="s">
-        <v>258</v>
+      <c r="E4" s="171" t="s">
+        <v>269</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -4088,8 +4319,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="162" t="s">
-        <v>260</v>
+      <c r="E5" s="173" t="s">
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -4120,8 +4351,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="164" t="s">
-        <v>262</v>
+      <c r="E6" s="175" t="s">
+        <v>273</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -4155,8 +4386,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="166" t="s">
-        <v>264</v>
+      <c r="F7" s="177" t="s">
+        <v>275</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -4489,8 +4720,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="157" t="s">
-        <v>255</v>
+      <c r="U2" s="168" t="s">
+        <v>266</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -4557,8 +4788,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="159" t="s">
-        <v>257</v>
+      <c r="U3" s="170" t="s">
+        <v>268</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -4631,8 +4862,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="161" t="s">
-        <v>259</v>
+      <c r="U4" s="172" t="s">
+        <v>270</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -4699,8 +4930,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="163" t="s">
-        <v>261</v>
+      <c r="U5" s="174" t="s">
+        <v>272</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -4767,8 +4998,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="165" t="s">
-        <v>263</v>
+      <c r="U6" s="176" t="s">
+        <v>274</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="287">
   <si>
     <t>shipmentType</t>
   </si>
@@ -855,6 +855,39 @@
   </si>
   <si>
     <t>Automation8938!</t>
+  </si>
+  <si>
+    <t>SeleniumARyU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499642</t>
+  </si>
+  <si>
+    <t>SeleniumTUde@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499643</t>
+  </si>
+  <si>
+    <t>Seleniummism@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499644</t>
+  </si>
+  <si>
+    <t>SeleniumzvJY@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499645</t>
+  </si>
+  <si>
+    <t>SeleniumguLn@mailinator.com</t>
+  </si>
+  <si>
+    <t>51499646</t>
+  </si>
+  <si>
+    <t>Automation5490!</t>
   </si>
 </sst>
 </file>
@@ -878,7 +911,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="324">
+  <fills count="346">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2495,8 +2528,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="320">
+  <borders count="342">
     <border>
       <left/>
       <right/>
@@ -3690,6 +3833,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3698,7 +3918,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="189">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3876,7 +4096,18 @@
     <xf applyBorder="true" applyFill="true" borderId="313" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="315" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="317" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="323" borderId="319" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="345" borderId="341" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4170,7 +4401,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.9921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.765625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -4223,8 +4454,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="167" t="s">
-        <v>265</v>
+      <c r="E2" s="178" t="s">
+        <v>276</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -4255,8 +4486,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="169" t="s">
-        <v>267</v>
+      <c r="E3" s="180" t="s">
+        <v>278</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -4287,8 +4518,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="171" t="s">
-        <v>269</v>
+      <c r="E4" s="182" t="s">
+        <v>280</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -4319,8 +4550,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="173" t="s">
-        <v>271</v>
+      <c r="E5" s="184" t="s">
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -4351,8 +4582,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="175" t="s">
-        <v>273</v>
+      <c r="E6" s="186" t="s">
+        <v>284</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -4386,8 +4617,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="177" t="s">
-        <v>275</v>
+      <c r="F7" s="188" t="s">
+        <v>286</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -4720,8 +4951,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="168" t="s">
-        <v>266</v>
+      <c r="U2" s="179" t="s">
+        <v>277</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -4788,8 +5019,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="170" t="s">
-        <v>268</v>
+      <c r="U3" s="181" t="s">
+        <v>279</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -4862,8 +5093,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="172" t="s">
-        <v>270</v>
+      <c r="U4" s="183" t="s">
+        <v>281</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -4930,8 +5161,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="174" t="s">
-        <v>272</v>
+      <c r="U5" s="185" t="s">
+        <v>283</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -4998,8 +5229,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="176" t="s">
-        <v>274</v>
+      <c r="U6" s="187" t="s">
+        <v>285</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
   <si>
     <t>shipmentType</t>
   </si>
@@ -888,6 +888,111 @@
   </si>
   <si>
     <t>Automation5490!</t>
+  </si>
+  <si>
+    <t>SeleniumBZFk@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500359</t>
+  </si>
+  <si>
+    <t>SeleniumFMvo@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500360</t>
+  </si>
+  <si>
+    <t>SeleniumiXkE@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500361</t>
+  </si>
+  <si>
+    <t>SeleniumewOH@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500365</t>
+  </si>
+  <si>
+    <t>Seleniumsrja@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500371</t>
+  </si>
+  <si>
+    <t>Automation7450!</t>
+  </si>
+  <si>
+    <t>SeleniumvBAf@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500741</t>
+  </si>
+  <si>
+    <t>SeleniumsZPF@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500742</t>
+  </si>
+  <si>
+    <t>SeleniumLLaR@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500743</t>
+  </si>
+  <si>
+    <t>SeleniumUmbf@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500744</t>
+  </si>
+  <si>
+    <t>SeleniumWakY@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500745</t>
+  </si>
+  <si>
+    <t>Automation7759!</t>
+  </si>
+  <si>
+    <t>SeleniumpRRF@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500852</t>
+  </si>
+  <si>
+    <t>SeleniumbuTI@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500853</t>
+  </si>
+  <si>
+    <t>SeleniumLmPO@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500854</t>
+  </si>
+  <si>
+    <t>SeleniumhWPo@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500855</t>
+  </si>
+  <si>
+    <t>SeleniumJVdM@mailinator.com</t>
+  </si>
+  <si>
+    <t>51500856</t>
+  </si>
+  <si>
+    <t>Automation4416!</t>
+  </si>
+  <si>
+    <t>SeleniumYYOG@mailinator.com</t>
+  </si>
+  <si>
+    <t>51501146</t>
   </si>
 </sst>
 </file>
@@ -911,7 +1016,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="346">
+  <fills count="416">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2638,8 +2743,358 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="342">
+  <borders count="412">
     <border>
       <left/>
       <right/>
@@ -3910,6 +4365,251 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3918,7 +4618,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="224">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4107,7 +4807,42 @@
     <xf applyBorder="true" applyFill="true" borderId="335" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="337" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="339" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="345" borderId="341" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="343" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="347" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="351" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="355" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="359" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="363" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="367" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="371" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="375" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="379" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="381" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="383" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="385" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="387" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="389" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="391" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="393" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="395" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="397" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="399" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="401" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="403" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="405" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="407" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="409" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="415" borderId="411" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4401,7 +5136,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.29296875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -4454,8 +5189,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="178" t="s">
-        <v>276</v>
+      <c r="E2" s="222" t="s">
+        <v>320</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -4486,8 +5221,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="180" t="s">
-        <v>278</v>
+      <c r="E3" s="213" t="s">
+        <v>311</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -4518,8 +5253,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="182" t="s">
-        <v>280</v>
+      <c r="E4" s="215" t="s">
+        <v>313</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -4550,8 +5285,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="184" t="s">
-        <v>282</v>
+      <c r="E5" s="217" t="s">
+        <v>315</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -4582,8 +5317,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="186" t="s">
-        <v>284</v>
+      <c r="E6" s="219" t="s">
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -4617,8 +5352,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="188" t="s">
-        <v>286</v>
+      <c r="F7" s="221" t="s">
+        <v>319</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -4951,8 +5686,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="179" t="s">
-        <v>277</v>
+      <c r="U2" s="223" t="s">
+        <v>321</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -5019,8 +5754,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="181" t="s">
-        <v>279</v>
+      <c r="U3" s="214" t="s">
+        <v>312</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -5093,8 +5828,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="183" t="s">
-        <v>281</v>
+      <c r="U4" s="216" t="s">
+        <v>314</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -5161,8 +5896,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="185" t="s">
-        <v>283</v>
+      <c r="U5" s="218" t="s">
+        <v>316</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -5229,8 +5964,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="187" t="s">
-        <v>285</v>
+      <c r="U6" s="220" t="s">
+        <v>318</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="361">
   <si>
     <t>shipmentType</t>
   </si>
@@ -993,6 +993,123 @@
   </si>
   <si>
     <t>51501146</t>
+  </si>
+  <si>
+    <t>Seleniumovep@mailinator.com</t>
+  </si>
+  <si>
+    <t>51501977</t>
+  </si>
+  <si>
+    <t>SeleniumAOAT@mailinator.com</t>
+  </si>
+  <si>
+    <t>51501978</t>
+  </si>
+  <si>
+    <t>SeleniumxgtU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51501979</t>
+  </si>
+  <si>
+    <t>SeleniumTOKE@mailinator.com</t>
+  </si>
+  <si>
+    <t>51501980</t>
+  </si>
+  <si>
+    <t>SeleniumcsfI@mailinator.com</t>
+  </si>
+  <si>
+    <t>51501981</t>
+  </si>
+  <si>
+    <t>Automation2143!</t>
+  </si>
+  <si>
+    <t>SeleniumrnDD@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502038</t>
+  </si>
+  <si>
+    <t>SeleniumCrZJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502039</t>
+  </si>
+  <si>
+    <t>SeleniumIkuj@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502040</t>
+  </si>
+  <si>
+    <t>SeleniumCTRW@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502041</t>
+  </si>
+  <si>
+    <t>SeleniumGGPe@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation1254!</t>
+  </si>
+  <si>
+    <t>SeleniumMzSU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502122</t>
+  </si>
+  <si>
+    <t>SeleniumXLRy@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502129</t>
+  </si>
+  <si>
+    <t>SeleniumNnSP@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502143</t>
+  </si>
+  <si>
+    <t>SeleniumOIqC@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502146</t>
+  </si>
+  <si>
+    <t>SeleniumZGNl@mailinator.com</t>
+  </si>
+  <si>
+    <t>51502148</t>
+  </si>
+  <si>
+    <t>Automation5054!</t>
+  </si>
+  <si>
+    <t>SeleniumKkkh@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumZZrs@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumgFkY@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumgEdD@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumSoRU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51503402</t>
+  </si>
+  <si>
+    <t>Automation1495!</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1133,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="416">
+  <fills count="494">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3093,8 +3210,398 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="412">
+  <borders count="490">
     <border>
       <left/>
       <right/>
@@ -4610,6 +5117,279 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4618,7 +5398,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4842,7 +5622,46 @@
     <xf applyBorder="true" applyFill="true" borderId="405" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="407" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="409" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="415" borderId="411" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="411" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="413" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="415" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="417" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="419" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="421" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="423" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="425" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="427" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="429" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="431" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="433" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="435" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="437" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="439" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="441" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="443" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="445" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="447" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="449" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="451" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="453" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="455" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="457" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="459" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="461" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="463" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="465" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="467" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="469" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="471" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="473" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="475" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="477" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="479" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="481" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="483" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="485" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="487" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="493" borderId="489" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5136,7 +5955,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.29296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.50390625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -5189,8 +6008,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="222" t="s">
-        <v>320</v>
+      <c r="E2" s="256" t="s">
+        <v>354</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -5221,8 +6040,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="213" t="s">
-        <v>311</v>
+      <c r="E3" s="257" t="s">
+        <v>355</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -5253,8 +6072,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="215" t="s">
-        <v>313</v>
+      <c r="E4" s="258" t="s">
+        <v>356</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -5285,8 +6104,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="217" t="s">
-        <v>315</v>
+      <c r="E5" s="259" t="s">
+        <v>357</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -5317,8 +6136,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="219" t="s">
-        <v>317</v>
+      <c r="E6" s="260" t="s">
+        <v>358</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -5352,8 +6171,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="221" t="s">
-        <v>319</v>
+      <c r="F7" s="262" t="s">
+        <v>360</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -5686,8 +6505,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="223" t="s">
-        <v>321</v>
+      <c r="U2" s="246" t="s">
+        <v>344</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -5754,8 +6573,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="214" t="s">
-        <v>312</v>
+      <c r="U3" s="248" t="s">
+        <v>346</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -5828,8 +6647,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="216" t="s">
-        <v>314</v>
+      <c r="U4" s="250" t="s">
+        <v>348</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -5896,8 +6715,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="218" t="s">
-        <v>316</v>
+      <c r="U5" s="252" t="s">
+        <v>350</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -5964,8 +6783,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="220" t="s">
-        <v>318</v>
+      <c r="U6" s="261" t="s">
+        <v>359</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="367">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1110,6 +1110,24 @@
   </si>
   <si>
     <t>Automation1495!</t>
+  </si>
+  <si>
+    <t>SeleniumZAeN@mailinator.com</t>
+  </si>
+  <si>
+    <t>51518220</t>
+  </si>
+  <si>
+    <t>SeleniumPJZG@mailinator.com</t>
+  </si>
+  <si>
+    <t>51518321</t>
+  </si>
+  <si>
+    <t>SeleniumNgXc@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumcnpG@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1151,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="494">
+  <fills count="506">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3600,8 +3618,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="490">
+  <borders count="502">
     <border>
       <left/>
       <right/>
@@ -5390,6 +5468,48 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5398,7 +5518,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="269">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -5661,7 +5781,13 @@
     <xf applyBorder="true" applyFill="true" borderId="483" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="485" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="487" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="493" borderId="489" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="489" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="491" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="493" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="505" borderId="501" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5955,7 +6081,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.50390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.66015625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -6008,8 +6134,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="256" t="s">
-        <v>354</v>
+      <c r="E2" s="265" t="s">
+        <v>363</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -6040,8 +6166,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="257" t="s">
-        <v>355</v>
+      <c r="E3" s="267" t="s">
+        <v>365</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -6072,8 +6198,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="258" t="s">
-        <v>356</v>
+      <c r="E4" s="268" t="s">
+        <v>366</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -6505,8 +6631,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="246" t="s">
-        <v>344</v>
+      <c r="U2" s="266" t="s">
+        <v>364</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="368">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t>SeleniumcnpG@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation9587!</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="506">
+  <fills count="508">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3678,8 +3681,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="502">
+  <borders count="504">
     <border>
       <left/>
       <right/>
@@ -5510,6 +5523,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5518,7 +5538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="270">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -5787,7 +5807,8 @@
     <xf applyBorder="true" applyFill="true" borderId="495" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="505" borderId="501" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="501" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="507" borderId="503" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6297,8 +6318,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="262" t="s">
-        <v>360</v>
+      <c r="F7" s="269" t="s">
+        <v>367</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="380">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1131,6 +1131,42 @@
   </si>
   <si>
     <t>Automation9587!</t>
+  </si>
+  <si>
+    <t>SeleniumWLss@mailinator.com</t>
+  </si>
+  <si>
+    <t>51521919</t>
+  </si>
+  <si>
+    <t>Seleniumgwyt@mailinator.com</t>
+  </si>
+  <si>
+    <t>51521921</t>
+  </si>
+  <si>
+    <t>Seleniumtjhm@mailinator.com</t>
+  </si>
+  <si>
+    <t>51521922</t>
+  </si>
+  <si>
+    <t>SeleniumnGzs@mailinator.com</t>
+  </si>
+  <si>
+    <t>51521923</t>
+  </si>
+  <si>
+    <t>SeleniumbBFR@mailinator.com</t>
+  </si>
+  <si>
+    <t>51521924</t>
+  </si>
+  <si>
+    <t>Automation5499!</t>
+  </si>
+  <si>
+    <t>Automation3965!</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="508">
+  <fills count="532">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3691,8 +3727,128 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="504">
+  <borders count="528">
     <border>
       <left/>
       <right/>
@@ -5530,6 +5686,90 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5538,7 +5778,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="282">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -5808,7 +6048,19 @@
     <xf applyBorder="true" applyFill="true" borderId="497" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="499" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="501" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="507" borderId="503" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="503" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="505" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="507" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="509" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="531" borderId="527" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6155,8 +6407,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="265" t="s">
-        <v>363</v>
+      <c r="E2" s="270" t="s">
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -6187,8 +6439,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="267" t="s">
-        <v>365</v>
+      <c r="E3" s="272" t="s">
+        <v>370</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -6219,8 +6471,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="268" t="s">
-        <v>366</v>
+      <c r="E4" s="274" t="s">
+        <v>372</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -6251,8 +6503,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="259" t="s">
-        <v>357</v>
+      <c r="E5" s="276" t="s">
+        <v>374</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -6283,8 +6535,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="260" t="s">
-        <v>358</v>
+      <c r="E6" s="278" t="s">
+        <v>376</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6318,8 +6570,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="269" t="s">
-        <v>367</v>
+      <c r="F7" s="281" t="s">
+        <v>379</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -6652,8 +6904,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="266" t="s">
-        <v>364</v>
+      <c r="U2" s="271" t="s">
+        <v>369</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -6720,8 +6972,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="248" t="s">
-        <v>346</v>
+      <c r="U3" s="273" t="s">
+        <v>371</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -6794,8 +7046,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="250" t="s">
-        <v>348</v>
+      <c r="U4" s="275" t="s">
+        <v>373</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -6862,8 +7114,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="252" t="s">
-        <v>350</v>
+      <c r="U5" s="277" t="s">
+        <v>375</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -6930,8 +7182,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="261" t="s">
-        <v>359</v>
+      <c r="U6" s="279" t="s">
+        <v>377</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="388">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1167,6 +1167,30 @@
   </si>
   <si>
     <t>Automation3965!</t>
+  </si>
+  <si>
+    <t>Automation2674!</t>
+  </si>
+  <si>
+    <t>SeleniumuQEJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>51522302</t>
+  </si>
+  <si>
+    <t>SeleniumCerG@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumAqOs@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation9385!</t>
+  </si>
+  <si>
+    <t>Automation7829!</t>
+  </si>
+  <si>
+    <t>Automation6103!</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="532">
+  <fills count="548">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3847,8 +3871,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="528">
+  <borders count="544">
     <border>
       <left/>
       <right/>
@@ -5770,6 +5874,62 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5778,7 +5938,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="290">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6060,7 +6220,15 @@
     <xf applyBorder="true" applyFill="true" borderId="521" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="523" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="525" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="531" borderId="527" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="529" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="531" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="533" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="535" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="537" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="547" borderId="543" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6354,7 +6522,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.66015625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.44140625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -6407,8 +6575,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="270" t="s">
-        <v>368</v>
+      <c r="E2" s="286" t="s">
+        <v>384</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -6439,8 +6607,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="272" t="s">
-        <v>370</v>
+      <c r="E3" s="285" t="s">
+        <v>383</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -6570,8 +6738,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="281" t="s">
-        <v>379</v>
+      <c r="F7" s="289" t="s">
+        <v>387</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -6904,8 +7072,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="271" t="s">
-        <v>369</v>
+      <c r="U2" s="284" t="s">
+        <v>382</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="397">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1191,6 +1191,33 @@
   </si>
   <si>
     <t>Automation6103!</t>
+  </si>
+  <si>
+    <t>Automation3301!</t>
+  </si>
+  <si>
+    <t>Automation3467!</t>
+  </si>
+  <si>
+    <t>SeleniumGxjc@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumfJAa@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumUORD@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumGjBp@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumqoDh@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation7035!</t>
+  </si>
+  <si>
+    <t>Automation8509!</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1241,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="548">
+  <fills count="566">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3951,8 +3978,98 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="544">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -5930,6 +6047,69 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5938,7 +6118,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="299">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6228,7 +6408,16 @@
     <xf applyBorder="true" applyFill="true" borderId="537" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="539" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="541" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="547" borderId="543" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="565" borderId="561" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6522,7 +6711,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.30078125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -6575,8 +6764,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="286" t="s">
-        <v>384</v>
+      <c r="E2" s="292" t="s">
+        <v>390</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -6607,8 +6796,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="285" t="s">
-        <v>383</v>
+      <c r="E3" s="293" t="s">
+        <v>391</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -6639,8 +6828,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="274" t="s">
-        <v>372</v>
+      <c r="E4" s="294" t="s">
+        <v>392</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -6671,8 +6860,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="276" t="s">
-        <v>374</v>
+      <c r="E5" s="295" t="s">
+        <v>393</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -6703,8 +6892,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="278" t="s">
-        <v>376</v>
+      <c r="E6" s="296" t="s">
+        <v>394</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6738,8 +6927,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="289" t="s">
-        <v>387</v>
+      <c r="F7" s="298" t="s">
+        <v>396</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="404">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1218,6 +1218,27 @@
   </si>
   <si>
     <t>Automation8509!</t>
+  </si>
+  <si>
+    <t>SeleniumYcRj@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumrFfh@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniummXTW@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumbNGJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumDjon@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation9946!</t>
+  </si>
+  <si>
+    <t>Automation4435!</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="566">
+  <fills count="580">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4068,8 +4089,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="562">
+  <borders count="576">
     <border>
       <left/>
       <right/>
@@ -6110,6 +6201,55 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6118,7 +6258,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6417,7 +6557,14 @@
     <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="565" borderId="561" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="579" borderId="575" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6711,7 +6858,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.30078125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.8125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -6764,8 +6911,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="292" t="s">
-        <v>390</v>
+      <c r="E2" s="299" t="s">
+        <v>397</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -6796,8 +6943,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="293" t="s">
-        <v>391</v>
+      <c r="E3" s="300" t="s">
+        <v>398</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -6828,8 +6975,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="294" t="s">
-        <v>392</v>
+      <c r="E4" s="301" t="s">
+        <v>399</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -6860,8 +7007,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="295" t="s">
-        <v>393</v>
+      <c r="E5" s="302" t="s">
+        <v>400</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -6892,8 +7039,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="296" t="s">
-        <v>394</v>
+      <c r="E6" s="303" t="s">
+        <v>401</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6927,8 +7074,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="298" t="s">
-        <v>396</v>
+      <c r="F7" s="305" t="s">
+        <v>403</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="405">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1239,6 +1239,9 @@
   </si>
   <si>
     <t>Automation4435!</t>
+  </si>
+  <si>
+    <t>SeleniummuDA@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="580">
+  <fills count="582">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4159,8 +4162,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="576">
+  <borders count="578">
     <border>
       <left/>
       <right/>
@@ -6250,6 +6263,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6258,7 +6278,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6564,7 +6584,8 @@
     <xf applyBorder="true" applyFill="true" borderId="569" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="579" borderId="575" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="581" borderId="577" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6911,8 +6932,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="299" t="s">
-        <v>397</v>
+      <c r="E2" s="306" t="s">
+        <v>404</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="406">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1242,6 +1242,9 @@
   </si>
   <si>
     <t>SeleniummuDA@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation3544!</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1268,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="582">
+  <fills count="584">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4172,8 +4175,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="578">
+  <borders count="580">
     <border>
       <left/>
       <right/>
@@ -6270,6 +6283,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6278,7 +6298,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6585,7 +6605,8 @@
     <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="581" borderId="577" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="583" borderId="579" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7095,8 +7116,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="305" t="s">
-        <v>403</v>
+      <c r="F7" s="307" t="s">
+        <v>405</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="418">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1245,6 +1245,42 @@
   </si>
   <si>
     <t>Automation3544!</t>
+  </si>
+  <si>
+    <t>SeleniumAaQX@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524708</t>
+  </si>
+  <si>
+    <t>SeleniumsdIb@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524724</t>
+  </si>
+  <si>
+    <t>SeleniummMRJ@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524726</t>
+  </si>
+  <si>
+    <t>SeleniumyXdR@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524729</t>
+  </si>
+  <si>
+    <t>SeleniumBQxn@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524730</t>
+  </si>
+  <si>
+    <t>SeleniumMCuH@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524735</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="584">
+  <fills count="608">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4185,8 +4221,128 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="580">
+  <borders count="604">
     <border>
       <left/>
       <right/>
@@ -6290,6 +6446,90 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6298,7 +6538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="320">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6606,7 +6846,19 @@
     <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="577" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="583" borderId="579" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="589" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="591" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="593" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="595" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="597" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="599" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="601" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="603" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -6900,7 +7152,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.8125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.41796875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -6953,8 +7205,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="306" t="s">
-        <v>404</v>
+      <c r="E2" s="310" t="s">
+        <v>408</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -6985,8 +7237,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="300" t="s">
-        <v>398</v>
+      <c r="E3" s="312" t="s">
+        <v>410</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -7017,8 +7269,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="301" t="s">
-        <v>399</v>
+      <c r="E4" s="314" t="s">
+        <v>412</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -7049,8 +7301,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="302" t="s">
-        <v>400</v>
+      <c r="E5" s="316" t="s">
+        <v>414</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -7081,8 +7333,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="303" t="s">
-        <v>401</v>
+      <c r="E6" s="318" t="s">
+        <v>416</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -7450,8 +7702,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="284" t="s">
-        <v>382</v>
+      <c r="U2" s="311" t="s">
+        <v>409</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -7518,8 +7770,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="273" t="s">
-        <v>371</v>
+      <c r="U3" s="313" t="s">
+        <v>411</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -7592,8 +7844,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="275" t="s">
-        <v>373</v>
+      <c r="U4" s="315" t="s">
+        <v>413</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -7660,8 +7912,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="277" t="s">
-        <v>375</v>
+      <c r="U5" s="317" t="s">
+        <v>415</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -7728,8 +7980,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="279" t="s">
-        <v>377</v>
+      <c r="U6" s="319" t="s">
+        <v>417</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/binaries/FCfiles/SignUp.xlsx
+++ b/binaries/FCfiles/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="431">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1281,6 +1281,45 @@
   </si>
   <si>
     <t>51524735</t>
+  </si>
+  <si>
+    <t>SeleniumEZth@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524803</t>
+  </si>
+  <si>
+    <t>SeleniumzWUy@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524805</t>
+  </si>
+  <si>
+    <t>SeleniumSGJe@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumSVBm@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524809</t>
+  </si>
+  <si>
+    <t>SeleniumxQqe@mailinator.com</t>
+  </si>
+  <si>
+    <t>51524811</t>
+  </si>
+  <si>
+    <t>SeleniumNqds@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation3027!</t>
+  </si>
+  <si>
+    <t>Automation1196!</t>
+  </si>
+  <si>
+    <t>Automation2336!</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="608">
+  <fills count="634">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4341,8 +4380,138 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="604">
+  <borders count="630">
     <border>
       <left/>
       <right/>
@@ -6530,6 +6699,97 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6538,7 +6798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="333">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6858,7 +7118,20 @@
     <xf applyBorder="true" applyFill="true" borderId="597" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="599" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="601" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="607" borderId="603" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="603" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="605" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="607" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="609" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="611" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="613" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="615" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="617" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="619" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="621" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="623" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="625" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="627" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="633" borderId="629" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7152,7 +7425,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.41796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.1171875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -7205,8 +7478,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="310" t="s">
-        <v>408</v>
+      <c r="E2" s="329" t="s">
+        <v>427</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -7237,8 +7510,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="312" t="s">
-        <v>410</v>
+      <c r="E3" s="322" t="s">
+        <v>420</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -7269,8 +7542,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="314" t="s">
-        <v>412</v>
+      <c r="E4" s="324" t="s">
+        <v>422</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -7301,8 +7574,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="316" t="s">
-        <v>414</v>
+      <c r="E5" s="325" t="s">
+        <v>423</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -7333,8 +7606,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="318" t="s">
-        <v>416</v>
+      <c r="E6" s="327" t="s">
+        <v>425</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -7368,8 +7641,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="307" t="s">
-        <v>405</v>
+      <c r="F7" s="332" t="s">
+        <v>430</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -7702,8 +7975,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="311" t="s">
-        <v>409</v>
+      <c r="U2" s="321" t="s">
+        <v>419</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -7770,8 +8043,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="313" t="s">
-        <v>411</v>
+      <c r="U3" s="323" t="s">
+        <v>421</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -7912,8 +8185,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="317" t="s">
-        <v>415</v>
+      <c r="U5" s="326" t="s">
+        <v>424</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -7980,8 +8253,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="319" t="s">
-        <v>417</v>
+      <c r="U6" s="328" t="s">
+        <v>426</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">
